--- a/Lab 1/dice results.xlsx
+++ b/Lab 1/dice results.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdal\Documents\Master\EMJMD MAIA\SEMESTER 3 - UdG\MISA\Labs\Lab 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC8E4C2-58BF-47B7-8457-E2D602298738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FC4D37-15CF-4803-9A2E-F3099839BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="14">
   <si>
     <t>60_0.0</t>
   </si>
@@ -61,6 +72,12 @@
   </si>
   <si>
     <t>60_0.0001</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>STD</t>
   </si>
 </sst>
 </file>
@@ -96,8 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,19 +458,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B9:AF26"/>
+  <dimension ref="B9:AK29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="21.36328125" customWidth="1"/>
     <col min="10" max="16" width="10.26953125" customWidth="1"/>
+    <col min="34" max="34" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.7265625" customWidth="1"/>
+    <col min="36" max="36" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.08984375" customWidth="1"/>
+    <col min="38" max="38" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
         <v>3</v>
       </c>
@@ -487,34 +513,74 @@
       <c r="AF9" t="s">
         <v>2</v>
       </c>
+      <c r="AI9" s="1"/>
+      <c r="AK9" s="1"/>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
       </c>
+      <c r="F10">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="G10">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.76905999999999997</v>
+      </c>
       <c r="J10" t="s">
         <v>1</v>
       </c>
       <c r="L10" t="s">
         <v>9</v>
       </c>
+      <c r="N10">
+        <v>0.73726999999999998</v>
+      </c>
+      <c r="O10">
+        <v>0.81952000000000003</v>
+      </c>
+      <c r="P10">
+        <v>0.76509000000000005</v>
+      </c>
       <c r="R10" t="s">
         <v>1</v>
       </c>
       <c r="T10" t="s">
         <v>10</v>
       </c>
+      <c r="V10">
+        <v>0.73790999999999995</v>
+      </c>
+      <c r="W10">
+        <v>0.82032000000000005</v>
+      </c>
+      <c r="X10">
+        <v>0.7671</v>
+      </c>
       <c r="Z10" t="s">
         <v>1</v>
       </c>
       <c r="AB10" t="s">
         <v>11</v>
       </c>
+      <c r="AD10">
+        <v>0.73804000000000003</v>
+      </c>
+      <c r="AE10">
+        <v>0.81981999999999999</v>
+      </c>
+      <c r="AF10">
+        <v>0.76926000000000005</v>
+      </c>
+      <c r="AI10" s="1"/>
+      <c r="AK10" s="1"/>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:37" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>3</v>
       </c>
@@ -552,30 +618,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:37" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
       </c>
+      <c r="F14">
+        <v>0.68574999999999997</v>
+      </c>
+      <c r="G14">
+        <v>0.74756999999999996</v>
+      </c>
+      <c r="H14">
+        <v>0.72008000000000005</v>
+      </c>
       <c r="J14" t="s">
         <v>5</v>
       </c>
       <c r="L14" t="s">
         <v>9</v>
       </c>
+      <c r="N14">
+        <v>0.68589</v>
+      </c>
+      <c r="O14">
+        <v>0.75182000000000004</v>
+      </c>
+      <c r="P14">
+        <v>0.71809999999999996</v>
+      </c>
       <c r="R14" t="s">
         <v>5</v>
       </c>
       <c r="T14" t="s">
         <v>10</v>
       </c>
+      <c r="V14">
+        <v>0.68527000000000005</v>
+      </c>
+      <c r="W14">
+        <v>0.75022999999999995</v>
+      </c>
+      <c r="X14">
+        <v>0.71809000000000001</v>
+      </c>
       <c r="Z14" t="s">
         <v>5</v>
       </c>
       <c r="AB14" t="s">
         <v>11</v>
+      </c>
+      <c r="AD14">
+        <v>0.68891999999999998</v>
+      </c>
+      <c r="AE14">
+        <v>0.74968999999999997</v>
+      </c>
+      <c r="AF14">
+        <v>0.72224999999999995</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.35">
@@ -623,23 +725,59 @@
       <c r="D18" t="s">
         <v>0</v>
       </c>
+      <c r="F18">
+        <v>0.71357000000000004</v>
+      </c>
+      <c r="G18">
+        <v>0.81464000000000003</v>
+      </c>
+      <c r="H18">
+        <v>0.74426999999999999</v>
+      </c>
       <c r="J18" t="s">
         <v>6</v>
       </c>
       <c r="L18" t="s">
         <v>9</v>
       </c>
+      <c r="N18">
+        <v>0.71433000000000002</v>
+      </c>
+      <c r="O18">
+        <v>0.81776000000000004</v>
+      </c>
+      <c r="P18">
+        <v>0.73984000000000005</v>
+      </c>
       <c r="R18" t="s">
         <v>6</v>
       </c>
       <c r="T18" t="s">
         <v>10</v>
       </c>
+      <c r="V18">
+        <v>0.71706000000000003</v>
+      </c>
+      <c r="W18">
+        <v>0.81835999999999998</v>
+      </c>
+      <c r="X18">
+        <v>0.74317999999999995</v>
+      </c>
       <c r="Z18" t="s">
         <v>6</v>
       </c>
       <c r="AB18" t="s">
         <v>11</v>
+      </c>
+      <c r="AD18">
+        <v>0.71701999999999999</v>
+      </c>
+      <c r="AE18">
+        <v>0.81760999999999995</v>
+      </c>
+      <c r="AF18">
+        <v>0.74434</v>
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.35">
@@ -687,23 +825,59 @@
       <c r="D22" t="s">
         <v>0</v>
       </c>
+      <c r="F22">
+        <v>0.75583</v>
+      </c>
+      <c r="G22">
+        <v>0.80964000000000003</v>
+      </c>
+      <c r="H22">
+        <v>0.76798</v>
+      </c>
       <c r="J22" t="s">
         <v>7</v>
       </c>
       <c r="L22" t="s">
         <v>9</v>
       </c>
+      <c r="N22">
+        <v>0.75561999999999996</v>
+      </c>
+      <c r="O22">
+        <v>0.80976999999999999</v>
+      </c>
+      <c r="P22">
+        <v>0.75990000000000002</v>
+      </c>
       <c r="R22" t="s">
         <v>7</v>
       </c>
       <c r="T22" t="s">
         <v>10</v>
       </c>
+      <c r="V22">
+        <v>0.75571999999999995</v>
+      </c>
+      <c r="W22">
+        <v>0.80972</v>
+      </c>
+      <c r="X22">
+        <v>0.76319000000000004</v>
+      </c>
       <c r="Z22" t="s">
         <v>7</v>
       </c>
       <c r="AB22" t="s">
         <v>11</v>
+      </c>
+      <c r="AD22">
+        <v>0.75631999999999999</v>
+      </c>
+      <c r="AE22">
+        <v>0.81005000000000005</v>
+      </c>
+      <c r="AF22">
+        <v>0.76615</v>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.35">
@@ -751,23 +925,183 @@
       <c r="D26" t="s">
         <v>0</v>
       </c>
+      <c r="F26">
+        <v>0.77209000000000005</v>
+      </c>
+      <c r="G26">
+        <v>0.83094999999999997</v>
+      </c>
+      <c r="H26">
+        <v>0.69493000000000005</v>
+      </c>
       <c r="J26" t="s">
         <v>8</v>
       </c>
       <c r="L26" t="s">
         <v>9</v>
       </c>
+      <c r="N26">
+        <v>0.77461000000000002</v>
+      </c>
+      <c r="O26">
+        <v>0.83540999999999999</v>
+      </c>
+      <c r="P26">
+        <v>0.69274000000000002</v>
+      </c>
       <c r="R26" t="s">
         <v>8</v>
       </c>
       <c r="T26" t="s">
         <v>10</v>
       </c>
+      <c r="V26">
+        <v>0.77436000000000005</v>
+      </c>
+      <c r="W26">
+        <v>0.83504999999999996</v>
+      </c>
+      <c r="X26">
+        <v>0.69715000000000005</v>
+      </c>
       <c r="Z26" t="s">
         <v>8</v>
       </c>
       <c r="AB26" t="s">
         <v>11</v>
+      </c>
+      <c r="AD26">
+        <v>0.77402000000000004</v>
+      </c>
+      <c r="AE26">
+        <v>0.83398000000000005</v>
+      </c>
+      <c r="AF26">
+        <v>0.69833000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <f>AVERAGE(F10,F14,F18,F22,F26)</f>
+        <v>0.732568</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:H28" si="0">AVERAGE(G10,G14,G18,G22,G26)</f>
+        <v>0.80367999999999995</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.73926400000000003</v>
+      </c>
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28">
+        <f>AVERAGE(N10,N14,N18,N22,N26)</f>
+        <v>0.73354399999999997</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="O28:P28" si="1">AVERAGE(O10,O14,O18,O22,O26)</f>
+        <v>0.80685600000000002</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0.73513400000000007</v>
+      </c>
+      <c r="U28" t="s">
+        <v>12</v>
+      </c>
+      <c r="V28">
+        <f>AVERAGE(V10,V14,V18,V22,V26)</f>
+        <v>0.73406399999999994</v>
+      </c>
+      <c r="W28">
+        <f t="shared" ref="W28:X28" si="2">AVERAGE(W10,W14,W18,W22,W26)</f>
+        <v>0.80673600000000012</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="2"/>
+        <v>0.73774200000000001</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD28">
+        <f>AVERAGE(AD10,AD14,AD18,AD22,AD26)</f>
+        <v>0.73486400000000007</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" ref="AE28:AF28" si="3">AVERAGE(AE10,AE14,AE18,AE22,AE26)</f>
+        <v>0.80623</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="3"/>
+        <v>0.740066</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <f>_xlfn.STDEV.P(F10,F14,F18,F22,F26)</f>
+        <v>3.0545543963072606E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:H29" si="4">_xlfn.STDEV.P(G10,G14,G18,G22,G26)</f>
+        <v>2.8947243737530534E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>2.8534189037013092E-2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29">
+        <f>_xlfn.STDEV.P(N10,N14,N18,N22,N26)</f>
+        <v>3.1073238389327882E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29:P29" si="5">_xlfn.STDEV.P(O10,O14,O18,O22,O26)</f>
+        <v>2.8747374558383575E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="5"/>
+        <v>2.6908257171359144E-2</v>
+      </c>
+      <c r="U29" t="s">
+        <v>13</v>
+      </c>
+      <c r="V29">
+        <f>_xlfn.STDEV.P(V10,V14,V18,V22,V26)</f>
+        <v>3.0911266942653757E-2</v>
+      </c>
+      <c r="W29">
+        <f t="shared" ref="W29:X29" si="6">_xlfn.STDEV.P(W10,W14,W18,W22,W26)</f>
+        <v>2.9404616372263739E-2</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="6"/>
+        <v>2.673191455919309E-2</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD29">
+        <f>_xlfn.STDEV.P(AD10,AD14,AD18,AD22,AD26)</f>
+        <v>2.9775488980031902E-2</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" ref="AE29:AF29" si="7">_xlfn.STDEV.P(AE10,AE14,AE18,AE22,AE26)</f>
+        <v>2.9310813704160471E-2</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="7"/>
+        <v>2.6870933441173958E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Lab 1/dice results.xlsx
+++ b/Lab 1/dice results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdal\Documents\Master\EMJMD MAIA\SEMESTER 3 - UdG\MISA\Labs\Lab 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FC4D37-15CF-4803-9A2E-F3099839BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A21C88E-65D8-442E-A809-D8AE78B14D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="B9:AK29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF27" sqref="AF27"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
